--- a/Excel_and_CSV/AzvaldtMeta.xlsx
+++ b/Excel_and_CSV/AzvaldtMeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\ShadowverseUtility\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BCFF6A-43CB-4F22-A41B-BF2BE83186C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D598BBFF-9157-4886-9E1D-9A10644A53F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Archetype Table" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="288">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -235,625 +235,667 @@
     <t>7RqPI</t>
   </si>
   <si>
+    <t>Si Long, Draconic God-Queen</t>
+  </si>
+  <si>
+    <t>7Qj6o</t>
+  </si>
+  <si>
+    <t>Evo Rally Sword</t>
+  </si>
+  <si>
+    <t>F&amp;G Dragon</t>
+  </si>
+  <si>
+    <t>Harnessed Flame</t>
+  </si>
+  <si>
+    <t>5zbeY</t>
+  </si>
+  <si>
+    <t>Mars Sword</t>
+  </si>
+  <si>
+    <t>Mars, Belligerent Flame</t>
+  </si>
+  <si>
+    <t>7PyI6</t>
+  </si>
+  <si>
+    <t>Evo Forest</t>
+  </si>
+  <si>
+    <t>Roach Forest</t>
+  </si>
+  <si>
+    <t>Whirlwind Assault</t>
+  </si>
+  <si>
+    <t>7TMIw</t>
+  </si>
+  <si>
+    <t>Sorcerer of Seven Forces</t>
+  </si>
+  <si>
+    <t>7U8rI</t>
+  </si>
+  <si>
+    <t>OTK Dragon</t>
+  </si>
+  <si>
+    <t>Infiniflame Dragon</t>
+  </si>
+  <si>
+    <t>7UXFo</t>
+  </si>
+  <si>
+    <t>7J37Q</t>
+  </si>
+  <si>
+    <t>Piercing Roar</t>
+  </si>
+  <si>
+    <t>Itsurugi, Eager Admirer</t>
+  </si>
+  <si>
+    <t>7RTxo</t>
+  </si>
+  <si>
+    <t>Blossoming Lunerian</t>
+  </si>
+  <si>
+    <t>7LjI2</t>
+  </si>
+  <si>
+    <t>Departed Soultaker</t>
+  </si>
+  <si>
+    <t>7UvgI</t>
+  </si>
+  <si>
+    <t>Cerberus, Infernal Hound</t>
+  </si>
+  <si>
+    <t>7UvgS</t>
+  </si>
+  <si>
+    <t>7 Forces Rune</t>
+  </si>
+  <si>
+    <t>Craftsman's Pride</t>
+  </si>
+  <si>
+    <t>7S8Aw</t>
+  </si>
+  <si>
+    <t>Orchis, the Limitless</t>
+  </si>
+  <si>
+    <t>7W2vo</t>
+  </si>
+  <si>
+    <t>7LjIC</t>
+  </si>
+  <si>
+    <t>Whorltusk Mammoth</t>
+  </si>
+  <si>
+    <t>Control Forest</t>
+  </si>
+  <si>
+    <t>Control Haven</t>
+  </si>
+  <si>
+    <t>7VgVS</t>
+  </si>
+  <si>
+    <t>Jeanne, Salvation's Maiden</t>
+  </si>
+  <si>
+    <t>gk9cI</t>
+  </si>
+  <si>
+    <t>Commander Sword</t>
+  </si>
+  <si>
+    <t>7Tf6M</t>
+  </si>
+  <si>
+    <t>Kitty Sergeant</t>
+  </si>
+  <si>
+    <t>Royal Fortress</t>
+  </si>
+  <si>
+    <t>7TmR6</t>
+  </si>
+  <si>
+    <t>Anne &amp; Grea, Royal Duo</t>
+  </si>
+  <si>
+    <t>7U8rc</t>
+  </si>
+  <si>
+    <t>Mysteria Rune</t>
+  </si>
+  <si>
+    <t>Mysteria, Magic Originator</t>
+  </si>
+  <si>
+    <t>7U8rS</t>
+  </si>
+  <si>
+    <t>Kagemitsu, Lost Samurai</t>
+  </si>
+  <si>
+    <t>7M88o</t>
+  </si>
+  <si>
+    <t>Fairy Forest</t>
+  </si>
+  <si>
+    <t>7XC9S</t>
+  </si>
+  <si>
+    <t>Nobilis, Sable-Lily Queen</t>
+  </si>
+  <si>
+    <t>Heroic Sword</t>
+  </si>
+  <si>
+    <t>Valiant Fencer</t>
+  </si>
+  <si>
+    <t>7XaZo</t>
+  </si>
+  <si>
+    <t>Chess Rune</t>
+  </si>
+  <si>
+    <t>Mystic King</t>
+  </si>
+  <si>
+    <t>7Xy-I</t>
+  </si>
+  <si>
+    <t>Armed Dragon</t>
+  </si>
+  <si>
+    <t>Hammer Dragonewt</t>
+  </si>
+  <si>
+    <t>7YIyi</t>
+  </si>
+  <si>
+    <t>Draconir, Knuckle Dragon</t>
+  </si>
+  <si>
+    <t>7YIyY</t>
+  </si>
+  <si>
+    <t>Bahamut Dragon</t>
+  </si>
+  <si>
+    <t>7S_bo</t>
+  </si>
+  <si>
+    <t>Ultimate Bahamut</t>
+  </si>
+  <si>
+    <t>7YjpI</t>
+  </si>
+  <si>
+    <t>Masquerade Ghost</t>
+  </si>
+  <si>
+    <t>Tevali, Demonic Cat</t>
+  </si>
+  <si>
+    <t>7Z6Dy</t>
+  </si>
+  <si>
+    <t>Vengeance Blood</t>
+  </si>
+  <si>
+    <t>7VI56</t>
+  </si>
+  <si>
+    <t>Waltz, Moonlight Wolf-King</t>
+  </si>
+  <si>
+    <t>7VI4o</t>
+  </si>
+  <si>
+    <t>Doomlord of the Abyss</t>
+  </si>
+  <si>
+    <t>Crystallize Haven</t>
+  </si>
+  <si>
+    <t>Holy Lightning Bird</t>
+  </si>
+  <si>
+    <t>7ZUeS</t>
+  </si>
+  <si>
+    <t>Diamond Master</t>
+  </si>
+  <si>
+    <t>7ZUeI</t>
+  </si>
+  <si>
+    <t>Adherent of Annihilation</t>
+  </si>
+  <si>
+    <t>7Lgs6</t>
+  </si>
+  <si>
+    <t>7TLa2</t>
+  </si>
+  <si>
+    <t>Aqua Fairy</t>
+  </si>
+  <si>
+    <t>Last Words Shadow</t>
+  </si>
+  <si>
+    <t>7QFpo</t>
+  </si>
+  <si>
+    <t>Orchestral Mage</t>
+  </si>
+  <si>
+    <t>Ghost Shadow</t>
+  </si>
+  <si>
+    <t>Opulent Strategist</t>
+  </si>
+  <si>
+    <t>7XaZy</t>
+  </si>
+  <si>
+    <t>7QI-w</t>
+  </si>
+  <si>
+    <t>Story of a Lifetime</t>
+  </si>
+  <si>
+    <t>7MsXi</t>
+  </si>
+  <si>
+    <t>Draconic Mercenary</t>
+  </si>
+  <si>
+    <t>Discard Dragon</t>
+  </si>
+  <si>
+    <t>Pazuzu Blood</t>
+  </si>
+  <si>
+    <t>Eccentric Archdemon</t>
+  </si>
+  <si>
+    <t>Pazuzu, Noxious Gale</t>
+  </si>
+  <si>
+    <t>7Z6E6</t>
+  </si>
+  <si>
+    <t>7NdMi</t>
+  </si>
+  <si>
+    <t>7YLP6</t>
+  </si>
+  <si>
+    <t>Lumiore, Prestigious Gold</t>
+  </si>
+  <si>
+    <t>Argente, Purest Silver</t>
+  </si>
+  <si>
+    <t>7YIys</t>
+  </si>
+  <si>
+    <t>7Q-CY</t>
+  </si>
+  <si>
+    <t>Inn Ghosthound</t>
+  </si>
+  <si>
+    <t>7Xy-S</t>
+  </si>
+  <si>
+    <t>Hozumi Forest</t>
+  </si>
+  <si>
+    <t>7PZtI</t>
+  </si>
+  <si>
+    <t>glhGI</t>
+  </si>
+  <si>
+    <t>Hozumi, Enchanting Hostess</t>
+  </si>
+  <si>
+    <t>Magachiyo Forest</t>
+  </si>
+  <si>
+    <t>Loot Sword</t>
+  </si>
+  <si>
+    <t>7bMGY</t>
+  </si>
+  <si>
+    <t>Storm-Wracked First Mate</t>
+  </si>
+  <si>
+    <t>7bOio</t>
+  </si>
+  <si>
+    <t>Barbaros, Briny Convict</t>
+  </si>
+  <si>
+    <t>Control Sword</t>
+  </si>
+  <si>
+    <t>7Sz9Y</t>
+  </si>
+  <si>
+    <t>Giant Happy Pig</t>
+  </si>
+  <si>
+    <t>7M8tg</t>
+  </si>
+  <si>
+    <t>Musketeer's Vow</t>
+  </si>
+  <si>
+    <t>Levi, Sapience Supreme</t>
+  </si>
+  <si>
+    <t>7U3yo</t>
+  </si>
+  <si>
+    <t>7QDNi</t>
+  </si>
+  <si>
+    <t>Chakram Wizard</t>
+  </si>
+  <si>
+    <t>7Xu5y</t>
+  </si>
+  <si>
+    <t>Mari, Card Conjurer</t>
+  </si>
+  <si>
+    <t>7UXFy</t>
+  </si>
+  <si>
+    <t>Forte, Darkwing Ruler</t>
+  </si>
+  <si>
+    <t>Test Subject Rune</t>
+  </si>
+  <si>
+    <t>Sephie, Depraved Convict</t>
+  </si>
+  <si>
+    <t>7bn7I</t>
+  </si>
+  <si>
+    <t>7UrWg</t>
+  </si>
+  <si>
+    <t>Corral Souls</t>
+  </si>
+  <si>
+    <t>Zerael Dragon</t>
+  </si>
+  <si>
+    <t>7adto</t>
+  </si>
+  <si>
+    <t>Zerael, Regent of Rebirth</t>
+  </si>
+  <si>
+    <t>7b0II</t>
+  </si>
+  <si>
+    <t>Magachiyo, Barbed Convict</t>
+  </si>
+  <si>
+    <t>Zerael Rune</t>
+  </si>
+  <si>
+    <t>Burial Rite Shadow</t>
+  </si>
+  <si>
+    <t>7cXyS</t>
+  </si>
+  <si>
+    <t>Myroel, Death Enforcer</t>
+  </si>
+  <si>
+    <t>7cXyI</t>
+  </si>
+  <si>
+    <t>Istyndet, Soul Convict</t>
+  </si>
+  <si>
+    <t>Zerael Shadow</t>
+  </si>
+  <si>
+    <t>Garodeth, Insurgent Convict</t>
+  </si>
+  <si>
+    <t>7cwMo</t>
+  </si>
+  <si>
+    <t>7dInS</t>
+  </si>
+  <si>
+    <t>Uneriel, Winged Enforcer</t>
+  </si>
+  <si>
+    <t>7Vbco</t>
+  </si>
+  <si>
+    <t>Teena, Sacred Sister</t>
+  </si>
+  <si>
+    <t>Enhance Portal</t>
+  </si>
+  <si>
+    <t>Cutthroat, Discord Convict</t>
+  </si>
+  <si>
+    <t>7dhBo</t>
+  </si>
+  <si>
+    <t>goM9o</t>
+  </si>
+  <si>
+    <t>Control Portal</t>
+  </si>
+  <si>
+    <t>7SEn6</t>
+  </si>
+  <si>
+    <t>Shion, Immortal Aegis</t>
+  </si>
+  <si>
+    <t>7ZqsA</t>
+  </si>
+  <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>Machina Portal</t>
+  </si>
+  <si>
+    <t>7W2vy</t>
+  </si>
+  <si>
+    <t>Gullias, King of Beasts</t>
+  </si>
+  <si>
+    <t>7dhBy</t>
+  </si>
+  <si>
+    <t>Kyrzael, Killshot Enforcer</t>
+  </si>
+  <si>
+    <t>Resonance Portal</t>
+  </si>
+  <si>
+    <t>7W0Ti</t>
+  </si>
+  <si>
+    <t>Norn, Arbiter of Worlds</t>
+  </si>
+  <si>
+    <t>7V-1S</t>
+  </si>
+  <si>
+    <t>Cassim, the Courageous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellboost Rune </t>
+  </si>
+  <si>
+    <t>Meltina, Miracle Sorceress</t>
+  </si>
+  <si>
+    <t>Artifact Portal</t>
+  </si>
+  <si>
+    <t>7SEmy</t>
+  </si>
+  <si>
+    <t>Full Blast Gunner</t>
+  </si>
+  <si>
+    <t>Merciless Voiding</t>
+  </si>
+  <si>
+    <t>7SAdA</t>
+  </si>
+  <si>
+    <t>Uneriel Haven</t>
+  </si>
+  <si>
+    <t>7W3eg</t>
+  </si>
+  <si>
+    <t>Summon Divine Treasure</t>
+  </si>
+  <si>
+    <t>Genomuel Blood</t>
+  </si>
+  <si>
+    <t>7cwMy</t>
+  </si>
+  <si>
+    <t>Genomuel, Wyrm Enforcer</t>
+  </si>
+  <si>
+    <t>Armed Discard Dragon</t>
+  </si>
+  <si>
     <t>Ramp Dragon</t>
   </si>
   <si>
-    <t>Si Long, Draconic God-Queen</t>
-  </si>
-  <si>
-    <t>7Qj6o</t>
-  </si>
-  <si>
-    <t>Evo Rally Sword</t>
-  </si>
-  <si>
-    <t>F&amp;G Dragon</t>
-  </si>
-  <si>
-    <t>Harnessed Flame</t>
-  </si>
-  <si>
-    <t>5zbeY</t>
-  </si>
-  <si>
-    <t>Mars Sword</t>
-  </si>
-  <si>
-    <t>Mars, Belligerent Flame</t>
-  </si>
-  <si>
-    <t>7PyI6</t>
-  </si>
-  <si>
-    <t>Evo Forest</t>
-  </si>
-  <si>
-    <t>Roach Forest</t>
-  </si>
-  <si>
-    <t>Whirlwind Assault</t>
-  </si>
-  <si>
-    <t>7TMIw</t>
-  </si>
-  <si>
-    <t>Sorcerer of Seven Forces</t>
-  </si>
-  <si>
-    <t>7U8rI</t>
-  </si>
-  <si>
-    <t>OTK Dragon</t>
-  </si>
-  <si>
-    <t>Infiniflame Dragon</t>
-  </si>
-  <si>
-    <t>7UXFo</t>
-  </si>
-  <si>
-    <t>7J37Q</t>
-  </si>
-  <si>
-    <t>Piercing Roar</t>
-  </si>
-  <si>
-    <t>Itsurugi, Eager Admirer</t>
-  </si>
-  <si>
-    <t>7RTxo</t>
-  </si>
-  <si>
-    <t>Blossoming Lunerian</t>
-  </si>
-  <si>
-    <t>7LjI2</t>
-  </si>
-  <si>
-    <t>Ignis Dragon</t>
-  </si>
-  <si>
-    <t>gfCDo</t>
-  </si>
-  <si>
-    <t>7J4qo</t>
-  </si>
-  <si>
-    <t>Departed Soultaker</t>
-  </si>
-  <si>
-    <t>7UvgI</t>
-  </si>
-  <si>
-    <t>Cerberus, Infernal Hound</t>
-  </si>
-  <si>
-    <t>7UvgS</t>
-  </si>
-  <si>
-    <t>7 Forces Rune</t>
-  </si>
-  <si>
-    <t>Craftsman's Pride</t>
-  </si>
-  <si>
-    <t>7S8Aw</t>
-  </si>
-  <si>
-    <t>Orchis, the Limitless</t>
-  </si>
-  <si>
-    <t>7W2vo</t>
-  </si>
-  <si>
-    <t>7PXRC</t>
-  </si>
-  <si>
-    <t>Fairytale Prince</t>
-  </si>
-  <si>
-    <t>7LjIC</t>
-  </si>
-  <si>
-    <t>Whorltusk Mammoth</t>
-  </si>
-  <si>
-    <t>Control Forest</t>
-  </si>
-  <si>
-    <t>Control Haven</t>
-  </si>
-  <si>
-    <t>7VgVS</t>
-  </si>
-  <si>
-    <t>Jeanne, Salvation's Maiden</t>
-  </si>
-  <si>
-    <t>gk9cI</t>
-  </si>
-  <si>
-    <t>Commander Sword</t>
-  </si>
-  <si>
-    <t>7Tf6M</t>
-  </si>
-  <si>
-    <t>Kitty Sergeant</t>
-  </si>
-  <si>
-    <t>Royal Fortress</t>
-  </si>
-  <si>
-    <t>7TmR6</t>
-  </si>
-  <si>
-    <t>Anne &amp; Grea, Royal Duo</t>
-  </si>
-  <si>
-    <t>7U8rc</t>
-  </si>
-  <si>
-    <t>Mysteria Rune</t>
-  </si>
-  <si>
-    <t>Mysteria, Magic Originator</t>
-  </si>
-  <si>
-    <t>7U8rS</t>
-  </si>
-  <si>
-    <t>Kagemitsu, Lost Samurai</t>
-  </si>
-  <si>
-    <t>7M88o</t>
-  </si>
-  <si>
-    <t>Fairy Forest</t>
-  </si>
-  <si>
-    <t>7XC9S</t>
-  </si>
-  <si>
-    <t>Nobilis, Sable-Lily Queen</t>
-  </si>
-  <si>
-    <t>Ambush Forest</t>
-  </si>
-  <si>
-    <t>Cosmos Fang</t>
-  </si>
-  <si>
-    <t>7XC9I</t>
-  </si>
-  <si>
-    <t>Heroic Sword</t>
-  </si>
-  <si>
-    <t>Valiant Fencer</t>
-  </si>
-  <si>
-    <t>7XaZo</t>
-  </si>
-  <si>
-    <t>Chess Rune</t>
-  </si>
-  <si>
-    <t>7XwY2</t>
-  </si>
-  <si>
-    <t>Milady, Mystic Queen</t>
-  </si>
-  <si>
-    <t>Mystic King</t>
-  </si>
-  <si>
-    <t>7Xy-I</t>
-  </si>
-  <si>
-    <t>Armed Dragon</t>
-  </si>
-  <si>
-    <t>Hammer Dragonewt</t>
-  </si>
-  <si>
-    <t>7YIyi</t>
-  </si>
-  <si>
-    <t>Draconir, Knuckle Dragon</t>
-  </si>
-  <si>
-    <t>7YIyY</t>
-  </si>
-  <si>
-    <t>Bahamut Dragon</t>
-  </si>
-  <si>
-    <t>7S_bo</t>
-  </si>
-  <si>
-    <t>Ultimate Bahamut</t>
-  </si>
-  <si>
-    <t>7YjpI</t>
-  </si>
-  <si>
-    <t>Masquerade Ghost</t>
-  </si>
-  <si>
-    <t>Howling Demon</t>
-  </si>
-  <si>
-    <t>7Z6Do</t>
-  </si>
-  <si>
-    <t>Tevali, Demonic Cat</t>
-  </si>
-  <si>
-    <t>7Z6Dy</t>
-  </si>
-  <si>
-    <t>Vengeance Blood</t>
-  </si>
-  <si>
-    <t>7VI56</t>
-  </si>
-  <si>
-    <t>Waltz, Moonlight Wolf-King</t>
-  </si>
-  <si>
-    <t>7VI4o</t>
-  </si>
-  <si>
-    <t>Doomlord of the Abyss</t>
-  </si>
-  <si>
-    <t>Crystallize Haven</t>
-  </si>
-  <si>
-    <t>Holy Lightning Bird</t>
-  </si>
-  <si>
-    <t>7ZUeS</t>
-  </si>
-  <si>
-    <t>Diamond Master</t>
-  </si>
-  <si>
-    <t>7ZUeI</t>
-  </si>
-  <si>
-    <t>Adherent of Annihilation</t>
-  </si>
-  <si>
-    <t>7Lgs6</t>
-  </si>
-  <si>
-    <t>7TLa2</t>
-  </si>
-  <si>
-    <t>Aqua Fairy</t>
-  </si>
-  <si>
-    <t>Reanimate Shadow</t>
-  </si>
-  <si>
-    <t>7UtE2</t>
-  </si>
-  <si>
-    <t>Charon, Stygian Demise</t>
-  </si>
-  <si>
-    <t>gnAU2</t>
-  </si>
-  <si>
-    <t>Last Words Shadow</t>
-  </si>
-  <si>
-    <t>7QFpo</t>
-  </si>
-  <si>
-    <t>Orchestral Mage</t>
-  </si>
-  <si>
-    <t>Ghost Shadow</t>
-  </si>
-  <si>
-    <t>Opulent Strategist</t>
-  </si>
-  <si>
-    <t>7XaZy</t>
-  </si>
-  <si>
-    <t>7QI-w</t>
-  </si>
-  <si>
-    <t>Story of a Lifetime</t>
-  </si>
-  <si>
-    <t>7MsXi</t>
-  </si>
-  <si>
-    <t>Draconic Mercenary</t>
-  </si>
-  <si>
-    <t>Discard Dragon</t>
-  </si>
-  <si>
-    <t>Pazuzu Blood</t>
-  </si>
-  <si>
-    <t>Eccentric Archdemon</t>
-  </si>
-  <si>
-    <t>Pazuzu, Noxious Gale</t>
-  </si>
-  <si>
-    <t>7Z6E6</t>
-  </si>
-  <si>
-    <t>7NdMi</t>
-  </si>
-  <si>
-    <t>7YLP6</t>
-  </si>
-  <si>
-    <t>Lumiore, Prestigious Gold</t>
-  </si>
-  <si>
-    <t>Argente, Purest Silver</t>
-  </si>
-  <si>
-    <t>7YIys</t>
-  </si>
-  <si>
-    <t>7Q-CY</t>
-  </si>
-  <si>
-    <t>Inn Ghosthound</t>
-  </si>
-  <si>
-    <t>7Xy-S</t>
-  </si>
-  <si>
-    <t>Hozumi Forest</t>
-  </si>
-  <si>
-    <t>Garuel, Seraphic Leo</t>
-  </si>
-  <si>
-    <t>7WnIY</t>
-  </si>
-  <si>
-    <t>7PZtI</t>
-  </si>
-  <si>
-    <t>glhGI</t>
-  </si>
-  <si>
-    <t>Hozumi, Enchanting Hostess</t>
-  </si>
-  <si>
-    <t>Magachiyo Forest</t>
-  </si>
-  <si>
-    <t>Loot Sword</t>
-  </si>
-  <si>
-    <t>7bMGY</t>
-  </si>
-  <si>
-    <t>Storm-Wracked First Mate</t>
-  </si>
-  <si>
-    <t>7bOio</t>
-  </si>
-  <si>
-    <t>Barbaros, Briny Convict</t>
-  </si>
-  <si>
-    <t>Control Sword</t>
-  </si>
-  <si>
-    <t>7Sz9Y</t>
-  </si>
-  <si>
-    <t>Giant Happy Pig</t>
-  </si>
-  <si>
-    <t>7M8tg</t>
-  </si>
-  <si>
-    <t>Musketeer's Vow</t>
-  </si>
-  <si>
-    <t>Levi, Sapience Supreme</t>
-  </si>
-  <si>
-    <t>7U3yo</t>
-  </si>
-  <si>
-    <t>7QDNi</t>
-  </si>
-  <si>
-    <t>Chakram Wizard</t>
-  </si>
-  <si>
-    <t>7Xu5y</t>
-  </si>
-  <si>
-    <t>Mari, Card Conjurer</t>
-  </si>
-  <si>
-    <t>7UXFy</t>
-  </si>
-  <si>
-    <t>Forte, Darkwing Ruler</t>
-  </si>
-  <si>
-    <t>Test Subject Rune</t>
-  </si>
-  <si>
-    <t>Sephie, Depraved Convict</t>
-  </si>
-  <si>
-    <t>7bn7I</t>
-  </si>
-  <si>
-    <t>7UrWg</t>
-  </si>
-  <si>
-    <t>Corral Souls</t>
-  </si>
-  <si>
-    <t>Zerael Dragon</t>
-  </si>
-  <si>
-    <t>7adto</t>
-  </si>
-  <si>
-    <t>Zerael, Regent of Rebirth</t>
-  </si>
-  <si>
-    <t>7b0II</t>
-  </si>
-  <si>
-    <t>Magachiyo, Barbed Convict</t>
-  </si>
-  <si>
-    <t>Zerael Rune</t>
-  </si>
-  <si>
-    <t>Burial Rite Shadow</t>
-  </si>
-  <si>
-    <t>7cXyS</t>
-  </si>
-  <si>
-    <t>Myroel, Death Enforcer</t>
-  </si>
-  <si>
-    <t>7cXyI</t>
-  </si>
-  <si>
-    <t>Istyndet, Soul Convict</t>
-  </si>
-  <si>
-    <t>Zerael Shadow</t>
-  </si>
-  <si>
-    <t>Garodeth, Insurgent Convict</t>
-  </si>
-  <si>
-    <t>7cwMo</t>
-  </si>
-  <si>
-    <t>7dInS</t>
-  </si>
-  <si>
-    <t>Uneriel, Winged Enforcer</t>
-  </si>
-  <si>
-    <t>7Vbco</t>
-  </si>
-  <si>
-    <t>Teena, Sacred Sister</t>
-  </si>
-  <si>
-    <t>Enhance Portal</t>
-  </si>
-  <si>
-    <t>Cutthroat, Discord Convict</t>
-  </si>
-  <si>
-    <t>7dhBo</t>
-  </si>
-  <si>
-    <t>goM9o</t>
-  </si>
-  <si>
-    <t>7dcJI</t>
-  </si>
-  <si>
-    <t>Smeltwork Bodyguard</t>
-  </si>
-  <si>
-    <t>Control Portal</t>
-  </si>
-  <si>
-    <t>7SEn6</t>
-  </si>
-  <si>
-    <t>Shion, Immortal Aegis</t>
-  </si>
-  <si>
-    <t>7ZqsA</t>
-  </si>
-  <si>
-    <t>Arc</t>
-  </si>
-  <si>
-    <t>Machina Portal</t>
-  </si>
-  <si>
-    <t>7W2vy</t>
-  </si>
-  <si>
-    <t>Gullias, King of Beasts</t>
-  </si>
-  <si>
-    <t>7dhBy</t>
-  </si>
-  <si>
-    <t>Kyrzael, Killshot Enforcer</t>
-  </si>
-  <si>
-    <t>7LNJy</t>
-  </si>
-  <si>
-    <t>Resonance Portal</t>
-  </si>
-  <si>
-    <t>7W0Ti</t>
-  </si>
-  <si>
-    <t>Norn, Arbiter of Worlds</t>
-  </si>
-  <si>
-    <t>7V-1S</t>
-  </si>
-  <si>
-    <t>Cassim, the Courageous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellboost Rune </t>
-  </si>
-  <si>
-    <t>Meltina, Miracle Sorceress</t>
-  </si>
-  <si>
-    <t>Artifact Portal</t>
-  </si>
-  <si>
-    <t>7SEmy</t>
-  </si>
-  <si>
-    <t>Full Blast Gunner</t>
-  </si>
-  <si>
-    <t>Merciless Voiding</t>
-  </si>
-  <si>
-    <t>7SAdA</t>
-  </si>
-  <si>
-    <t>Uneriel Haven</t>
-  </si>
-  <si>
-    <t>7W3eg</t>
-  </si>
-  <si>
-    <t>Summon Divine Treasure</t>
+    <t>Lock Forest</t>
+  </si>
+  <si>
+    <t>7TO0I</t>
+  </si>
+  <si>
+    <t>Shining Valkyrie</t>
+  </si>
+  <si>
+    <t>Evo Dragon</t>
+  </si>
+  <si>
+    <t>Reinvigorated Dragoon</t>
+  </si>
+  <si>
+    <t>7c4fS</t>
+  </si>
+  <si>
+    <t>Alice, Wandering Dreamer</t>
+  </si>
+  <si>
+    <t>7adu6</t>
+  </si>
+  <si>
+    <t>Castle Dragon</t>
+  </si>
+  <si>
+    <t>Dragon Queen's Castle</t>
+  </si>
+  <si>
+    <t>7c7LA</t>
+  </si>
+  <si>
+    <t>7YE4M</t>
+  </si>
+  <si>
+    <t>Augite Wyrm</t>
+  </si>
+  <si>
+    <t>Soultaker Shadow</t>
+  </si>
+  <si>
+    <t>Hydra Shadow</t>
+  </si>
+  <si>
+    <t>Hydra of Decay</t>
+  </si>
+  <si>
+    <t>7Yex6</t>
+  </si>
+  <si>
+    <t>Sniper Shadow</t>
+  </si>
+  <si>
+    <t>7cVWM</t>
+  </si>
+  <si>
+    <t>Soul Sniper</t>
+  </si>
+  <si>
+    <t>7Q-Ci</t>
+  </si>
+  <si>
+    <t>Flogging Necromancer</t>
+  </si>
+  <si>
+    <t>7delY</t>
+  </si>
+  <si>
+    <t>Ironforged Right Hand</t>
+  </si>
+  <si>
+    <t>7cpmw</t>
+  </si>
+  <si>
+    <t>Howling Scream</t>
+  </si>
+  <si>
+    <t>7cVW2</t>
+  </si>
+  <si>
+    <t>Abyssal Colonel</t>
+  </si>
+  <si>
+    <t>Evo Fairy Forest</t>
+  </si>
+  <si>
+    <t>7azs2</t>
+  </si>
+  <si>
+    <t>Verdant Lieutenant</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1195,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1028"/>
+  <dimension ref="A1:I1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1228,49 +1270,49 @@
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>198</v>
+      <c r="C4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -1280,51 +1322,50 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>227</v>
+      <c r="C5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>104</v>
+      <c r="C6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -1332,104 +1373,103 @@
       <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>145</v>
+        <v>79</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>6</v>
@@ -1437,25 +1477,26 @@
       <c r="H10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>6</v>
@@ -1463,6 +1504,7 @@
       <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1478,10 +1520,10 @@
         <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>6</v>
@@ -1492,22 +1534,22 @@
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>6</v>
@@ -1518,22 +1560,22 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>6</v>
@@ -1544,22 +1586,22 @@
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>6</v>
@@ -1596,22 +1638,22 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>6</v>
@@ -1622,22 +1664,22 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>6</v>
@@ -1648,22 +1690,22 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>6</v>
@@ -1674,22 +1716,22 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>6</v>
@@ -1712,10 +1754,10 @@
         <v>37</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>6</v>
@@ -1726,48 +1768,48 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="E22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>6</v>
@@ -1778,22 +1820,22 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>6</v>
@@ -1804,22 +1846,22 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>6</v>
@@ -1830,22 +1872,22 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>6</v>
@@ -1856,22 +1898,22 @@
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>31</v>
@@ -1882,22 +1924,22 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>31</v>
@@ -1908,7 +1950,7 @@
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
@@ -1940,16 +1982,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>6</v>
@@ -1978,10 +2020,10 @@
         <v>52</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1998,10 +2040,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>6</v>
@@ -2012,22 +2054,22 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>6</v>
@@ -2038,22 +2080,22 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>6</v>
@@ -2064,74 +2106,74 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>6</v>
@@ -2142,48 +2184,48 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>6</v>
@@ -2194,22 +2236,22 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>6</v>
@@ -2220,22 +2262,22 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>6</v>
@@ -2246,22 +2288,22 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>6</v>
@@ -2270,24 +2312,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>167</v>
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>6</v>
@@ -2296,24 +2338,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>167</v>
+    <row r="44" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>6</v>
@@ -2324,48 +2366,48 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>6</v>
@@ -2376,48 +2418,48 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>6</v>
@@ -2428,75 +2470,74 @@
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>6</v>
@@ -2504,26 +2545,25 @@
       <c r="H51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>6</v>
@@ -2533,24 +2573,24 @@
       </c>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>6</v>
@@ -2562,22 +2602,22 @@
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>6</v>
@@ -2589,22 +2629,22 @@
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>6</v>
@@ -2616,22 +2656,22 @@
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>6</v>
@@ -2639,25 +2679,26 @@
       <c r="H56" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>6</v>
@@ -2665,25 +2706,26 @@
       <c r="H57" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>240</v>
+        <v>37</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>6</v>
@@ -2692,24 +2734,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>6</v>
@@ -2718,24 +2760,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>238</v>
+        <v>25</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>6</v>
@@ -2744,24 +2786,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>6</v>
@@ -2772,22 +2814,22 @@
     </row>
     <row r="62" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>6</v>
@@ -2798,22 +2840,22 @@
     </row>
     <row r="63" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>6</v>
@@ -2824,22 +2866,22 @@
     </row>
     <row r="64" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>6</v>
@@ -2850,22 +2892,22 @@
     </row>
     <row r="65" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>6</v>
@@ -2876,22 +2918,22 @@
     </row>
     <row r="66" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>6</v>
@@ -2902,22 +2944,22 @@
     </row>
     <row r="67" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>6</v>
@@ -2928,22 +2970,22 @@
     </row>
     <row r="68" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>6</v>
@@ -2954,22 +2996,22 @@
     </row>
     <row r="69" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>6</v>
@@ -2978,24 +3020,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>6</v>
@@ -3006,22 +3048,22 @@
     </row>
     <row r="71" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>6</v>
@@ -3032,22 +3074,22 @@
     </row>
     <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>6</v>
@@ -3058,55 +3100,87 @@
     </row>
     <row r="73" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3122,29 +3196,43 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
     <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="7"/>
-    </row>
-    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="7"/>
-    </row>
+    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="7"/>
     </row>
@@ -5967,6 +6055,12 @@
     </row>
     <row r="1028" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1028" s="7"/>
+    </row>
+    <row r="1029" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1029" s="7"/>
+    </row>
+    <row r="1030" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1030" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5978,7 +6072,7 @@
           <x14:formula1>
             <xm:f>Class!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B86:B1028 B6:B78</xm:sqref>
+          <xm:sqref>B88:B1030 B4:B80</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
